--- a/Bytexl-guided project-documenting test cases.xlsx
+++ b/Bytexl-guided project-documenting test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\space\OneDrive\Desktop\todo app\step-by-step-Todo-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E911C-07B9-483C-BE8A-CC35FA4F6179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5048F7-FA1C-46B9-9438-17CB10873BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,9 +631,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>all the record is received</t>
-  </si>
-  <si>
     <t>record has been created</t>
   </si>
   <si>
@@ -644,6 +641,9 @@
   </si>
   <si>
     <t>state of task has been updated</t>
+  </si>
+  <si>
+    <t>all the record has been received</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2022,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -2101,10 +2101,10 @@
         <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>32</v>
@@ -2130,10 +2130,10 @@
         <v>30</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>32</v>
@@ -2159,10 +2159,10 @@
         <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>32</v>
@@ -2188,10 +2188,10 @@
         <v>29</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>32</v>
@@ -2217,10 +2217,10 @@
         <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>32</v>
